--- a/db/Encomendas.xlsx
+++ b/db/Encomendas.xlsx
@@ -348,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,7 +385,7 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Marca: Adidas; Tipo: Nemeziz 17.3; Tamanho: 42.44; Cor: Preto-Dourado; </t>
+          <t xml:space="preserve">Marca: Adidas; Tipo: Nemeziz 17.3; Tamanho: 42.44; Cor: Preto-Dourado; </t>
         </is>
       </c>
       <c r="H1" t="n">
@@ -427,7 +427,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Marca: Adidas; Tipo: Nemeziz 17.1; Tamanho: 34,35,36,37; Cor: Preto-Salmão; </t>
+          <t xml:space="preserve">Marca: Adidas; Tipo: Nemeziz 17.1; Tamanho: 34,35,36,37; Cor: Preto-Salmão; </t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -438,6 +438,174 @@
       </c>
       <c r="J2" t="n">
         <v>119.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Brevemente</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>43615.68216788984</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>TITINHO</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Chuteiras Nike</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marca: Nike; Tipo: Mercurial Superfly; Tamanho: 36; Cor: Verde Limão-Preto; </t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>150</v>
+      </c>
+      <c r="J3" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Brevemente</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>43615.68216788984</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>TITINHO</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Chuteiras Nike</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marca: Nike; Tipo: Magista Obra; Tamanho: 36; Cor: Vermelho-Preto; </t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>150</v>
+      </c>
+      <c r="J4" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>F86214_1559229846</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>43615.68346583805</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>TITINHO</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Chuteiras Nike</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marca: Nike; Tipo: Mercurial Superfly; Tamanho: 36; Cor: Verde Limão-Preto; </t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>150</v>
+      </c>
+      <c r="J5" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>F86214_1559229846</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>43615.68346583805</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>TITINHO</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Chuteiras Nike</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marca: Nike; Tipo: Magista Obra; Tamanho: 36; Cor: Vermelho-Preto; </t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>150</v>
+      </c>
+      <c r="J6" t="n">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
